--- a/biology/Zoologie/Charinus_dominicanus/Charinus_dominicanus.xlsx
+++ b/biology/Zoologie/Charinus_dominicanus/Charinus_dominicanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charinus dominicanus est une espèce d'amblypyges de la famille des Charinidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la province de Barahona en République dominicaine[1],[2]. Elle se rencontre au sud de Santa Cruz de Barahona dans la Sierra de Bahoruco.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la province de Barahona en République dominicaine,. Elle se rencontre au sud de Santa Cruz de Barahona dans la Sierra de Bahoruco.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 4,42 mm[3].
-La carapace du mâle décrit par Miranda, Giupponi, Prendini et Scharff en 2021 mesure 2,80 mm de long sur 2,69 mm et celle des femelles de 1,72 à 1,87 mm de long sur de 2,41 à 2,70 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 4,42 mm.
+La carapace du mâle décrit par Miranda, Giupponi, Prendini et Scharff en 2021 mesure 2,80 mm de long sur 2,69 mm et celle des femelles de 1,72 à 1,87 mm de long sur de 2,41 à 2,70 mm.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, la République dominicaine.
 </t>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Armas &amp; González, 2002 : « Los amblipígidos de. República Dominicana (Arachnida: Amblypygi). » Revista Iberica de Aracnologia, vol. 3, p. 47-66 (texte intégral).</t>
         </is>
